--- a/Numerical methods/LW3/LW3.xlsx
+++ b/Numerical methods/LW3/LW3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\studies\Numerical methods\LW3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\studies\Numerical methods\LW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EC5626-2DFB-4B4F-A867-8B51495699AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E3734A-5339-422C-BBC0-4A3F8723BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8400" yWindow="3675" windowWidth="21585" windowHeight="11370" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Простой итерации" sheetId="1" r:id="rId1"/>
+    <sheet name="Наискорейшего спуска" sheetId="2" r:id="rId2"/>
+    <sheet name="Градиентный метод" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -57,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>A_inf =</t>
   </si>
@@ -147,6 +151,36 @@
   </si>
   <si>
     <t>AT * A|b</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>alf</t>
+  </si>
+  <si>
+    <t>(Sk, ASk)</t>
+  </si>
+  <si>
+    <t>(r, r)</t>
+  </si>
+  <si>
+    <t>iter</t>
+  </si>
+  <si>
+    <t>ASk</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
 </sst>
 </file>
@@ -473,18 +507,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AI42"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -502,7 +536,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>7.4980000000000002</v>
       </c>
@@ -557,7 +591,7 @@
         <v>11.872</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-0.46700000000000003</v>
       </c>
@@ -612,7 +646,7 @@
         <v>11.920000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-0.90300000000000002</v>
       </c>
@@ -660,7 +694,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.56799999999999995</v>
       </c>
@@ -708,7 +742,7 @@
         <v>11.872</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.751</v>
       </c>
@@ -756,7 +790,7 @@
         <v>11.510000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -783,7 +817,7 @@
         <v>11.920000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -813,7 +847,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
@@ -892,7 +926,7 @@
         <v>12.872</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -970,7 +1004,7 @@
         <v>12.920000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1041,7 +1075,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1112,7 +1146,7 @@
         <v>12.872</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -1183,7 +1217,7 @@
         <v>12.510000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="T19">
         <f>SUM(T13:T17)</f>
         <v>9.1869999999999994</v>
@@ -1205,7 +1239,7 @@
         <v>12.920000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1242,7 +1276,7 @@
         <v>630001.31559298665</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1</v>
       </c>
@@ -1265,7 +1299,7 @@
         <v>37.978260420282744</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1</v>
       </c>
@@ -1288,7 +1322,7 @@
         <v>127.32641437190547</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1311,7 +1345,7 @@
         <v>-45.445444911065273</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
@@ -1334,7 +1368,7 @@
         <v>30.252660722305784</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1405,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1</v>
       </c>
@@ -1470,7 +1504,7 @@
         <v>0.84908389585342348</v>
       </c>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0</v>
       </c>
@@ -1568,7 +1602,7 @@
         <v>0.70329545181987152</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0</v>
       </c>
@@ -1659,7 +1693,7 @@
         <v>0.82872101720269253</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0</v>
       </c>
@@ -1750,7 +1784,7 @@
         <v>0.2697326203208556</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0</v>
       </c>
@@ -1841,7 +1875,7 @@
         <v>0.22122015915119364</v>
       </c>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="Z36">
         <f>SUM(Z30:Z34)</f>
         <v>0.70329545181987152</v>
@@ -1863,7 +1897,7 @@
         <v>0.67161080162229703</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>12</v>
       </c>
@@ -1871,7 +1905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
@@ -1936,7 +1970,7 @@
         <v>-55.252000000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1</v>
       </c>
@@ -1986,7 +2020,7 @@
         <v>16.690761907804653</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1</v>
       </c>
@@ -2036,7 +2070,7 @@
         <v>20.080044668961133</v>
       </c>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1</v>
       </c>
@@ -2086,7 +2120,7 @@
         <v>-78.561506490548851</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1</v>
       </c>
@@ -2138,17 +2172,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="N12:R12"/>
     <mergeCell ref="Z29:AD29"/>
     <mergeCell ref="T12:X12"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="T29:X29"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="N12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2159,16 +2193,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F3416-944A-40B7-BB96-2BB4AC54D766}">
   <dimension ref="A1:AEY49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2192,7 +2226,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5.2403000000000004</v>
       </c>
@@ -2242,7 +2276,7 @@
         <v>-2.5373000000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-1.4360999999999999</v>
       </c>
@@ -2292,7 +2326,7 @@
         <v>2.5573000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>5.1886000000000001</v>
       </c>
@@ -2342,7 +2376,7 @@
         <v>-6.9600999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5.4817</v>
       </c>
@@ -2392,7 +2426,7 @@
         <v>9.6417000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-2.5373000000000001</v>
       </c>
@@ -2442,7 +2476,7 @@
         <v>-2.7947000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2463,7 +2497,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" cm="1">
         <f t="array" ref="B9:G13">MMULT(O2:S6,B2:G6)</f>
         <v>92.931623439999996</v>
@@ -2504,7 +2538,7 @@
         <v>35.516657280000004</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>67.859226020000008</v>
       </c>
@@ -2542,7 +2576,7 @@
         <v>126.18140964</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>-39.116454349999998</v>
       </c>
@@ -2580,7 +2614,7 @@
         <v>402.88913587000002</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-89.784851750000001</v>
       </c>
@@ -2618,7 +2652,7 @@
         <v>-17.671533749999998</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>-21.988464449999999</v>
       </c>
@@ -2656,7 +2690,7 @@
         <v>-62.393180920000006</v>
       </c>
     </row>
-    <row r="22" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:831" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2667,7 +2701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1</v>
       </c>
@@ -5988,7 +6022,7 @@
         <v>5.6511623072016253</v>
       </c>
     </row>
-    <row r="24" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8480,7 +8514,7 @@
         <v>-2.0406420761190263</v>
       </c>
     </row>
-    <row r="25" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
@@ -10972,7 +11006,7 @@
         <v>-5.6812074243507507</v>
       </c>
     </row>
-    <row r="26" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -13464,7 +13498,7 @@
         <v>0.83229221322755886</v>
       </c>
     </row>
-    <row r="27" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1</v>
       </c>
@@ -15956,7 +15990,7 @@
         <v>-6.838652432134193</v>
       </c>
     </row>
-    <row r="29" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:831" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -19281,7 +19315,7 @@
         <v>2.2048030018595455E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1213.6230335000002</v>
       </c>
@@ -21773,7 +21807,7 @@
         <v>-8.6543923316639848E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>-1634.2809776500003</v>
       </c>
@@ -24265,7 +24299,7 @@
         <v>3.284839226580516E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>-81.333507469999972</v>
       </c>
@@ -26757,7 +26791,7 @@
         <v>2.0526255440245222E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>-1119.3011452199999</v>
       </c>
@@ -29249,7 +29283,7 @@
         <v>-1.9850137732646544E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:831" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -32530,7 +32564,7 @@
         <v>3.3005429451430846E-8</v>
       </c>
       <c r="AEO35">
-        <f t="shared" ref="AEO35:AGZ35" si="19">AEO29*AEO29 + AEO30*AEO30 + AEO31*AEO31+AEO32*AEO32+AEO33*AEO33</f>
+        <f t="shared" ref="AEO35:AEY35" si="19">AEO29*AEO29 + AEO30*AEO30 + AEO31*AEO31+AEO32*AEO32+AEO33*AEO33</f>
         <v>1.3245412229540548E-8</v>
       </c>
       <c r="AEP35">
@@ -32574,7 +32608,7 @@
         <v>9.8703382955887686E-9</v>
       </c>
     </row>
-    <row r="37" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:831" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -35899,7 +35933,7 @@
         <v>-6.5152298200788893E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>437148.46473176498</v>
       </c>
@@ -38391,7 +38425,7 @@
         <v>-1.0259872494550487E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>-461798.20654103038</v>
       </c>
@@ -40883,7 +40917,7 @@
         <v>8.9341976471884049E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>-34883.150731436835</v>
       </c>
@@ -43375,7 +43409,7 @@
         <v>3.7148161078850569E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:831" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>-379648.42332959</v>
       </c>
@@ -45867,7 +45901,7 @@
         <v>8.1481221164322534E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:831" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -49148,7 +49182,7 @@
         <v>7.7047403167602394E-6</v>
       </c>
       <c r="AEO43">
-        <f t="shared" ref="AEO43:AGZ43" si="39">AEO29*AEO37+AEO30*AEO38+AEO31*AEO39+AEO32*AEO40+AEO33*AEO41</f>
+        <f t="shared" ref="AEO43:AEY43" si="39">AEO29*AEO37+AEO30*AEO38+AEO31*AEO39+AEO32*AEO40+AEO33*AEO41</f>
         <v>1.2778842884019896E-6</v>
       </c>
       <c r="AEP43">
@@ -49192,7 +49226,7 @@
         <v>9.5226558272119292E-7</v>
       </c>
     </row>
-    <row r="45" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:831" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -52473,7 +52507,7 @@
         <v>4.2837822034875895E-3</v>
       </c>
       <c r="AEO45">
-        <f t="shared" ref="AEO45:AGZ45" si="59">AEO35 / AEO43</f>
+        <f t="shared" ref="AEO45:AEY45" si="59">AEO35 / AEO43</f>
         <v>1.0365110792702604E-2</v>
       </c>
       <c r="AEP45">
@@ -52517,7 +52551,7 @@
         <v>1.0365110820642391E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:831" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -55798,7 +55832,7 @@
         <v>1.8167396470444202E-4</v>
       </c>
       <c r="AEO47">
-        <f t="shared" ref="AEO47:AGZ47" si="79">SQRT(AEO29^2 + AEO30^2 +AEO31^2 +AEO32^2 +AEO33^2)</f>
+        <f t="shared" ref="AEO47:AEY47" si="79">SQRT(AEO29^2 + AEO30^2 +AEO31^2 +AEO32^2 +AEO33^2)</f>
         <v>1.1508871460547532E-4</v>
       </c>
       <c r="AEP47">
@@ -55842,7 +55876,7 @@
         <v>9.9349576222492099E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:831" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:831" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -59123,7 +59157,7 @@
         <v>0</v>
       </c>
       <c r="AEO49">
-        <f t="shared" ref="AEO49:AGZ49" si="99">IF(AEO47 &lt; 0.0001, 1, 0)</f>
+        <f t="shared" ref="AEO49:AEY49" si="99">IF(AEO47 &lt; 0.0001, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AEP49">
@@ -59178,4 +59212,923 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0D75C-7C29-445D-9B57-3C648AE105CB}">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5.2403000000000004</v>
+      </c>
+      <c r="C2">
+        <v>5.7522000000000002</v>
+      </c>
+      <c r="D2">
+        <v>3.4759000000000002</v>
+      </c>
+      <c r="E2">
+        <v>-0.48749999999999999</v>
+      </c>
+      <c r="F2">
+        <v>-1.3241000000000001</v>
+      </c>
+      <c r="G2">
+        <v>6.7775999999999996</v>
+      </c>
+      <c r="I2">
+        <v>5.2403000000000004</v>
+      </c>
+      <c r="J2">
+        <v>-1.4360999999999999</v>
+      </c>
+      <c r="K2">
+        <v>5.1886000000000001</v>
+      </c>
+      <c r="L2">
+        <v>5.4817</v>
+      </c>
+      <c r="M2">
+        <v>-2.5373000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>-1.4360999999999999</v>
+      </c>
+      <c r="C3">
+        <v>-0.22059999999999999</v>
+      </c>
+      <c r="D3">
+        <v>-2.2722000000000002</v>
+      </c>
+      <c r="E3">
+        <v>9.7707999999999995</v>
+      </c>
+      <c r="F3">
+        <v>-1.2518</v>
+      </c>
+      <c r="G3">
+        <v>21.936199999999999</v>
+      </c>
+      <c r="I3">
+        <v>5.7522000000000002</v>
+      </c>
+      <c r="J3">
+        <v>-0.22059999999999999</v>
+      </c>
+      <c r="K3">
+        <v>9.5263000000000009</v>
+      </c>
+      <c r="L3">
+        <v>-1.0106999999999999</v>
+      </c>
+      <c r="M3">
+        <v>2.5573000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5.1886000000000001</v>
+      </c>
+      <c r="C4">
+        <v>9.5263000000000009</v>
+      </c>
+      <c r="D4">
+        <v>-8.0340000000000007</v>
+      </c>
+      <c r="E4">
+        <v>-4.2249999999999996</v>
+      </c>
+      <c r="F4">
+        <v>-9.3440999999999992</v>
+      </c>
+      <c r="G4">
+        <v>115.9093</v>
+      </c>
+      <c r="I4">
+        <v>3.4759000000000002</v>
+      </c>
+      <c r="J4">
+        <v>-2.2722000000000002</v>
+      </c>
+      <c r="K4">
+        <v>-8.0340000000000007</v>
+      </c>
+      <c r="L4">
+        <v>-6.6711</v>
+      </c>
+      <c r="M4">
+        <v>-6.9600999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5.4817</v>
+      </c>
+      <c r="C5">
+        <v>-1.0106999999999999</v>
+      </c>
+      <c r="D5">
+        <v>-6.6711</v>
+      </c>
+      <c r="E5">
+        <v>-4.8913000000000002</v>
+      </c>
+      <c r="F5">
+        <v>4.4775</v>
+      </c>
+      <c r="G5">
+        <v>36.249299999999998</v>
+      </c>
+      <c r="I5">
+        <v>-0.48749999999999999</v>
+      </c>
+      <c r="J5">
+        <v>9.7707999999999995</v>
+      </c>
+      <c r="K5">
+        <v>-4.2249999999999996</v>
+      </c>
+      <c r="L5">
+        <v>-4.8913000000000002</v>
+      </c>
+      <c r="M5">
+        <v>9.6417000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>-2.5373000000000001</v>
+      </c>
+      <c r="C6">
+        <v>2.5573000000000001</v>
+      </c>
+      <c r="D6">
+        <v>-6.9600999999999997</v>
+      </c>
+      <c r="E6">
+        <v>9.6417000000000002</v>
+      </c>
+      <c r="F6">
+        <v>-2.7947000000000002</v>
+      </c>
+      <c r="G6">
+        <v>47.121200000000002</v>
+      </c>
+      <c r="I6">
+        <v>-1.3241000000000001</v>
+      </c>
+      <c r="J6">
+        <v>-1.2518</v>
+      </c>
+      <c r="K6">
+        <v>-9.3440999999999992</v>
+      </c>
+      <c r="L6">
+        <v>4.4775</v>
+      </c>
+      <c r="M6">
+        <v>-2.7947000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" cm="1">
+        <f t="array" ref="B9:G13">MMULT(I2:M6,B2:G6)</f>
+        <v>92.931623439999996</v>
+      </c>
+      <c r="C9">
+        <v>67.859226020000008</v>
+      </c>
+      <c r="D9">
+        <v>-39.116454349999998</v>
+      </c>
+      <c r="E9">
+        <v>-89.784851750000001</v>
+      </c>
+      <c r="F9">
+        <v>-21.988464449999999</v>
+      </c>
+      <c r="G9">
+        <v>684.5682414900001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>67.859226020000008</v>
+      </c>
+      <c r="C10">
+        <v>131.44815867</v>
+      </c>
+      <c r="D10">
+        <v>-67.095557860000014</v>
+      </c>
+      <c r="E10">
+        <v>-15.60789716</v>
+      </c>
+      <c r="F10">
+        <v>-108.02733633</v>
+      </c>
+      <c r="G10">
+        <v>1222.1996268400003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-39.116454349999998</v>
+      </c>
+      <c r="C11">
+        <v>-67.095557860000014</v>
+      </c>
+      <c r="D11">
+        <v>174.73649687</v>
+      </c>
+      <c r="E11">
+        <v>-24.428907749999993</v>
+      </c>
+      <c r="F11">
+        <v>62.893941390000009</v>
+      </c>
+      <c r="G11">
+        <v>-1527.2914593500002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>-89.784851750000001</v>
+      </c>
+      <c r="C12">
+        <v>-15.60789716</v>
+      </c>
+      <c r="D12">
+        <v>-24.428907749999993</v>
+      </c>
+      <c r="E12">
+        <v>230.44400847</v>
+      </c>
+      <c r="F12">
+        <v>-20.953220930000011</v>
+      </c>
+      <c r="G12">
+        <v>-1.6643765899999607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-21.988464449999999</v>
+      </c>
+      <c r="C13">
+        <v>-108.02733633</v>
+      </c>
+      <c r="D13">
+        <v>62.893941390000009</v>
+      </c>
+      <c r="E13">
+        <v>-20.953220930000011</v>
+      </c>
+      <c r="F13">
+        <v>118.49080319999999</v>
+      </c>
+      <c r="G13">
+        <v>-1088.8854223399999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" cm="1">
+        <f t="array" ref="B17:B21">G9:G13 - MMULT(B9:F13,B44:B48)</f>
+        <v>674.66716258000008</v>
+      </c>
+      <c r="C17" cm="1">
+        <f t="array" ref="C17:C21">$G$9:$G$13 - MMULT($B$9:$F$13,_xlfn.ANCHORARRAY(C44))</f>
+        <v>-77.783749811055714</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17:D21">$G$9:$G$13 - MMULT($B$9:$F$13,_xlfn.ANCHORARRAY(D44))</f>
+        <v>14.872989530354857</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" ref="E17:E21">$G$9:$G$13 - MMULT($B$9:$F$13,_xlfn.ANCHORARRAY(E44))</f>
+        <v>-28.263697840597274</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17:F21">$G$9:$G$13 - MMULT($B$9:$F$13,_xlfn.ANCHORARRAY(F44))</f>
+        <v>11.187387037782969</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17:G21">$G$9:$G$13 - MMULT($B$9:$F$13,_xlfn.ANCHORARRAY(G44))</f>
+        <v>-1.5631940186722204E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1213.6230335000002</v>
+      </c>
+      <c r="C18">
+        <v>-151.83843426524027</v>
+      </c>
+      <c r="D18">
+        <v>-28.71256003453891</v>
+      </c>
+      <c r="E18">
+        <v>-11.642267716574452</v>
+      </c>
+      <c r="F18">
+        <v>-8.8840188774940998</v>
+      </c>
+      <c r="G18">
+        <v>-2.02817318495363E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>-1634.2809776500003</v>
+      </c>
+      <c r="C19">
+        <v>-191.82444906127807</v>
+      </c>
+      <c r="D19">
+        <v>-4.1363516464268741</v>
+      </c>
+      <c r="E19">
+        <v>6.9899724846286517</v>
+      </c>
+      <c r="F19">
+        <v>1.2679628419305118</v>
+      </c>
+      <c r="G19">
+        <v>1.6461854102090001E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>-81.333507469999972</v>
+      </c>
+      <c r="C20">
+        <v>27.626267162288173</v>
+      </c>
+      <c r="D20">
+        <v>-128.25118435630634</v>
+      </c>
+      <c r="E20">
+        <v>1.2244171333197116</v>
+      </c>
+      <c r="F20">
+        <v>3.5106296049431407</v>
+      </c>
+      <c r="G20">
+        <v>1.3181988833821379E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>-1119.3011452199999</v>
+      </c>
+      <c r="C21">
+        <v>66.555228935333389</v>
+      </c>
+      <c r="D21">
+        <v>-6.8085582885189524</v>
+      </c>
+      <c r="E21">
+        <v>-39.954464878472209</v>
+      </c>
+      <c r="F21">
+        <v>-4.9958196382876849</v>
+      </c>
+      <c r="G21">
+        <v>1.5188561519607902E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <f>B17</f>
+        <v>674.66716258000008</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23:D27">C17:C21 + C42 * C23:C27</f>
+        <v>-69.59629585564285</v>
+      </c>
+      <c r="E23" cm="1">
+        <f t="array" ref="E23:E27">D17:D21 + D42 * D23:D27</f>
+        <v>-2.3144277569247897</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23:F27">E17:E21 + E42 * E23:E27</f>
+        <v>-28.60393878057295</v>
+      </c>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23:G27">F17:F21 + F42 * F23:F27</f>
+        <v>8.4947297712457903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>B18</f>
+        <v>1213.6230335000002</v>
+      </c>
+      <c r="D24">
+        <v>-137.11045689042399</v>
+      </c>
+      <c r="E24">
+        <v>-62.573193104915362</v>
+      </c>
+      <c r="F24">
+        <v>-20.841069440065741</v>
+      </c>
+      <c r="G24">
+        <v>-10.845911521045441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>B19</f>
+        <v>-1634.2809776500003</v>
+      </c>
+      <c r="D25">
+        <v>-211.65733999900749</v>
+      </c>
+      <c r="E25">
+        <v>-56.406993061369533</v>
+      </c>
+      <c r="F25">
+        <v>-1.302344388507354</v>
+      </c>
+      <c r="G25">
+        <v>1.1453654923784302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>B20</f>
+        <v>-81.333507469999972</v>
+      </c>
+      <c r="D26">
+        <v>26.639240692975029</v>
+      </c>
+      <c r="E26">
+        <v>-121.67238960326175</v>
+      </c>
+      <c r="F26">
+        <v>-16.662478702524524</v>
+      </c>
+      <c r="G26">
+        <v>1.9420923240793702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>B21</f>
+        <v>-1119.3011452199999</v>
+      </c>
+      <c r="D27">
+        <v>52.971899114322625</v>
+      </c>
+      <c r="E27">
+        <v>6.2733180295253934</v>
+      </c>
+      <c r="F27">
+        <v>-39.032232755760319</v>
+      </c>
+      <c r="G27">
+        <v>-8.6701536509989001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <f>B17*B17 + B18*B18 +B19*B19 + B20*B20 + B21*B21</f>
+        <v>5858381.154742308</v>
+      </c>
+      <c r="C29">
+        <f>C17*C17 + C18*C18 +C19*C19 + C20*C20 + C21*C21</f>
+        <v>71094.65024840823</v>
+      </c>
+      <c r="D29">
+        <f>D17*D17 + D18*D18 +D19*D19 + D20*D20 + D21*D21</f>
+        <v>17557.449081013379</v>
+      </c>
+      <c r="E29">
+        <f>E17*E17 + E18*E18 +E19*E19 + E20*E20 + E21*E21</f>
+        <v>2581.0971895862767</v>
+      </c>
+      <c r="F29">
+        <f>F17*F17 + F18*F18 +F19*F19 + F20*F20 + F21*F21</f>
+        <v>242.97388399874654</v>
+      </c>
+      <c r="G29">
+        <f>G17*G17 + G18*G18 +G19*G19 + G20*G20 + G21*G21</f>
+        <v>1.3311560719461585E-19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" cm="1">
+        <f t="array" ref="C31:C35">MMULT($B$9:$F$13,C23:C27)</f>
+        <v>240894.94204190772</v>
+      </c>
+      <c r="D31" cm="1">
+        <f t="array" ref="D31:D35">MMULT($B$9:$F$13,D23:D27)</f>
+        <v>-11049.192562070177</v>
+      </c>
+      <c r="E31" cm="1">
+        <f t="array" ref="E31:E35">MMULT($B$9:$F$13,E23:E27)</f>
+        <v>8531.5864187419866</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31:F35">MMULT($B$9:$F$13,F23:F27)</f>
+        <v>-1667.2291720200694</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31:G35">MMULT($B$9:$F$13,G23:G27)</f>
+        <v>24.904123958488128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>437148.46473176498</v>
+      </c>
+      <c r="D32">
+        <v>-14682.596251692605</v>
+      </c>
+      <c r="E32">
+        <v>-3376.1673178912752</v>
+      </c>
+      <c r="F32">
+        <v>-116.5654364735974</v>
+      </c>
+      <c r="G32">
+        <v>-19.776620458315847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>-461798.20654103038</v>
+      </c>
+      <c r="D33">
+        <v>-22381.555240185797</v>
+      </c>
+      <c r="E33">
+        <v>-2200.5675825482458</v>
+      </c>
+      <c r="F33">
+        <v>241.81594570329162</v>
+      </c>
+      <c r="G33">
+        <v>2.8225986710752977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>-34883.150731436835</v>
+      </c>
+      <c r="D34">
+        <v>18588.178152562752</v>
+      </c>
+      <c r="E34">
+        <v>-25607.721652988981</v>
+      </c>
+      <c r="F34">
+        <v>-96.61686460276735</v>
+      </c>
+      <c r="G34">
+        <v>7.8149754320703266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>-379648.42332959</v>
+      </c>
+      <c r="D35">
+        <v>8748.5337589125047</v>
+      </c>
+      <c r="E35">
+        <v>6555.6069261397342</v>
+      </c>
+      <c r="F35">
+        <v>-1477.3756751788783</v>
+      </c>
+      <c r="G35">
+        <v>-11.121141257383783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <f>C23*C31 + C24* C32 + C25*C33 + C26*C34 + C27*C35</f>
+        <v>1875543461.3621817</v>
+      </c>
+      <c r="D38">
+        <f>D23*D31 + D24* D32 + D25*D33 + D26*D34 + D27*D35</f>
+        <v>8477942.2016269565</v>
+      </c>
+      <c r="E38">
+        <f>E23*E31 + E24* E32 + E25*E33 + E26*E34 + E27*E35</f>
+        <v>3472517.3224172411</v>
+      </c>
+      <c r="F38">
+        <f>F23*F31 + F24* F32 + F25*F33 + F26*F34 + F27*F35</f>
+        <v>109078.88955559576</v>
+      </c>
+      <c r="G38">
+        <f>G23*G31 + G24* G32 + G25*G33 + G26*G34 + G27*G35</f>
+        <v>540.88159328531151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <f>B29 / C38</f>
+        <v>3.1235645963050332E-3</v>
+      </c>
+      <c r="D40">
+        <f>C29 / D38</f>
+        <v>8.3858380439023085E-3</v>
+      </c>
+      <c r="E40">
+        <f>D29 / E38</f>
+        <v>5.0561156218485118E-3</v>
+      </c>
+      <c r="F40">
+        <f>E29 / F38</f>
+        <v>2.3662664701685775E-2</v>
+      </c>
+      <c r="G40">
+        <f>F29 / G38</f>
+        <v>0.44921825222952155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <f>C29 / B29</f>
+        <v>1.2135545361513006E-2</v>
+      </c>
+      <c r="D42">
+        <f>D29 / C29</f>
+        <v>0.24695879394113035</v>
+      </c>
+      <c r="E42">
+        <f>E29 / D29</f>
+        <v>0.14700866724298089</v>
+      </c>
+      <c r="F42">
+        <f>F29 / E29</f>
+        <v>9.4135891116015183E-2</v>
+      </c>
+      <c r="G42">
+        <f>G29 / F29</f>
+        <v>5.4785973292217108E-22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" cm="1">
+        <f t="array" ref="C44:C48">B44:B48 + C40 * C23:C27</f>
+        <v>3.10736646332446</v>
+      </c>
+      <c r="D44" cm="1">
+        <f t="array" ref="D44:D48">C44:C48 + D40 * D23:D27</f>
+        <v>2.5237431978235296</v>
+      </c>
+      <c r="E44" cm="1">
+        <f t="array" ref="E44:E48">D44:D48 + E40 * E23:E27</f>
+        <v>2.5120411834861023</v>
+      </c>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44:F48">E44:E48 + F40 * F23:F27</f>
+        <v>1.8351957709738578</v>
+      </c>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44:G48">F44:F48 + G40 * G23:G27</f>
+        <v>5.6511834319749745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>4.7908299407009185</v>
+      </c>
+      <c r="D45">
+        <v>3.6410438550923736</v>
+      </c>
+      <c r="E45">
+        <v>3.3246665559256674</v>
+      </c>
+      <c r="F45">
+        <v>2.8315113177408415</v>
+      </c>
+      <c r="G45">
+        <v>-2.0406700995792226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>-4.1047822022023182</v>
+      </c>
+      <c r="D46">
+        <v>-5.8797063762371611</v>
+      </c>
+      <c r="E46">
+        <v>-6.1649066550362521</v>
+      </c>
+      <c r="F46">
+        <v>-6.1957235936276236</v>
+      </c>
+      <c r="G46">
+        <v>-5.6812045089773795</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0.74594953557339716</v>
+      </c>
+      <c r="D47">
+        <v>0.96934189363721768</v>
+      </c>
+      <c r="E47">
+        <v>0.35415222381652744</v>
+      </c>
+      <c r="F47">
+        <v>-4.0126422820290608E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.83229689667101359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>-2.4962094298128701</v>
+      </c>
+      <c r="D48">
+        <v>-2.0519956629622285</v>
+      </c>
+      <c r="E48">
+        <v>-2.0202770416723212</v>
+      </c>
+      <c r="F48">
+        <v>-2.9438836779300344</v>
+      </c>
+      <c r="G48">
+        <v>-6.8386749475931659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <f>SQRT(B17^2 + B18^2 + B19^2 + B20^2 + B21^2)</f>
+        <v>2420.4092948801672</v>
+      </c>
+      <c r="C50">
+        <f>SQRT(C17^2 + C18^2 + C19^2 + C20^2 + C21^2)</f>
+        <v>266.63580076277873</v>
+      </c>
+      <c r="D50">
+        <f>SQRT(D17^2 + D18^2 + D19^2 + D20^2 + D21^2)</f>
+        <v>132.50452475675456</v>
+      </c>
+      <c r="E50">
+        <f>SQRT(E17^2 + E18^2 + E19^2 + E20^2 + E21^2)</f>
+        <v>50.804499698218429</v>
+      </c>
+      <c r="F50">
+        <f>SQRT(F17^2 + F18^2 + F19^2 + F20^2 + F21^2)</f>
+        <v>15.587619574481106</v>
+      </c>
+      <c r="G50">
+        <f>SQRT(G17^2 + G18^2 + G19^2 + G20^2 + G21^2)</f>
+        <v>3.6485011606770233E-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52">
+        <f>IF(B50 &lt; 0.000001, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>IF(C50 &lt; 0.000001, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:E52" si="0">IF(D50 &lt; 0.000001, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:G52" si="1">IF(F50 &lt; 0.000001, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="I1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Numerical methods/LW3/LW3.xlsx
+++ b/Numerical methods/LW3/LW3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\studies\Numerical methods\LW3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\studies\Numerical methods\LW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E3734A-5339-422C-BBC0-4A3F8723BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55FA42-4A62-4843-B833-57C95BD93A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8400" yWindow="3675" windowWidth="21585" windowHeight="11370" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Простой итерации" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>A_inf =</t>
   </si>
@@ -511,14 +508,14 @@
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -536,7 +533,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>7.4980000000000002</v>
       </c>
@@ -591,7 +588,7 @@
         <v>11.872</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>-0.46700000000000003</v>
       </c>
@@ -646,7 +643,7 @@
         <v>11.920000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>-0.90300000000000002</v>
       </c>
@@ -694,7 +691,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.56799999999999995</v>
       </c>
@@ -742,7 +739,7 @@
         <v>11.872</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.751</v>
       </c>
@@ -790,7 +787,7 @@
         <v>11.510000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -817,7 +814,7 @@
         <v>11.920000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
@@ -847,7 +844,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>1</v>
       </c>
@@ -926,7 +923,7 @@
         <v>12.872</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>12.920000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1075,7 +1072,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1146,7 +1143,7 @@
         <v>12.872</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0</v>
       </c>
@@ -1217,7 +1214,7 @@
         <v>12.510000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.35">
       <c r="T19">
         <f>SUM(T13:T17)</f>
         <v>9.1869999999999994</v>
@@ -1239,7 +1236,7 @@
         <v>12.920000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1276,7 +1273,7 @@
         <v>630001.31559298665</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>1</v>
       </c>
@@ -1299,7 +1296,7 @@
         <v>37.978260420282744</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>1</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>127.32641437190547</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1345,7 +1342,7 @@
         <v>-45.445444911065273</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>1</v>
       </c>
@@ -1368,7 +1365,7 @@
         <v>30.252660722305784</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1402,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>1</v>
       </c>
@@ -1504,7 +1501,7 @@
         <v>0.84908389585342348</v>
       </c>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0</v>
       </c>
@@ -1602,7 +1599,7 @@
         <v>0.70329545181987152</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0</v>
       </c>
@@ -1693,7 +1690,7 @@
         <v>0.82872101720269253</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0</v>
       </c>
@@ -1784,7 +1781,7 @@
         <v>0.2697326203208556</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0</v>
       </c>
@@ -1875,7 +1872,7 @@
         <v>0.22122015915119364</v>
       </c>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.35">
       <c r="Z36">
         <f>SUM(Z30:Z34)</f>
         <v>0.70329545181987152</v>
@@ -1897,7 +1894,7 @@
         <v>0.67161080162229703</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>12</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>1</v>
       </c>
@@ -1970,7 +1967,7 @@
         <v>-55.252000000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>1</v>
       </c>
@@ -2020,7 +2017,7 @@
         <v>16.690761907804653</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>1</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>20.080044668961133</v>
       </c>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>1</v>
       </c>
@@ -2120,7 +2117,7 @@
         <v>-78.561506490548851</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>1</v>
       </c>
@@ -2172,17 +2169,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="N12:R12"/>
     <mergeCell ref="Z29:AD29"/>
     <mergeCell ref="T12:X12"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="N29:R29"/>
     <mergeCell ref="T29:X29"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="N12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2191,18 +2188,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F3416-944A-40B7-BB96-2BB4AC54D766}">
-  <dimension ref="A1:AEY49"/>
+  <dimension ref="A1:AEY51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2226,7 +2223,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>5.2403000000000004</v>
       </c>
@@ -2276,7 +2273,7 @@
         <v>-2.5373000000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>-1.4360999999999999</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>2.5573000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>5.1886000000000001</v>
       </c>
@@ -2376,7 +2373,7 @@
         <v>-6.9600999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>5.4817</v>
       </c>
@@ -2426,7 +2423,7 @@
         <v>9.6417000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>-2.5373000000000001</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>-2.7947000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2497,7 +2494,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" cm="1">
         <f t="array" ref="B9:G13">MMULT(O2:S6,B2:G6)</f>
         <v>92.931623439999996</v>
@@ -2538,7 +2535,7 @@
         <v>35.516657280000004</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>67.859226020000008</v>
       </c>
@@ -2576,7 +2573,7 @@
         <v>126.18140964</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>-39.116454349999998</v>
       </c>
@@ -2614,7 +2611,7 @@
         <v>402.88913587000002</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>-89.784851750000001</v>
       </c>
@@ -2652,7 +2649,7 @@
         <v>-17.671533749999998</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>-21.988464449999999</v>
       </c>
@@ -2690,7 +2687,7 @@
         <v>-62.393180920000006</v>
       </c>
     </row>
-    <row r="22" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:831" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2701,7 +2698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>1</v>
       </c>
@@ -6022,7 +6019,7 @@
         <v>5.6511623072016253</v>
       </c>
     </row>
-    <row r="24" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8514,7 +8511,7 @@
         <v>-2.0406420761190263</v>
       </c>
     </row>
-    <row r="25" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>1</v>
       </c>
@@ -11006,7 +11003,7 @@
         <v>-5.6812074243507507</v>
       </c>
     </row>
-    <row r="26" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>1</v>
       </c>
@@ -13498,7 +13495,7 @@
         <v>0.83229221322755886</v>
       </c>
     </row>
-    <row r="27" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>1</v>
       </c>
@@ -15990,7 +15987,7 @@
         <v>-6.838652432134193</v>
       </c>
     </row>
-    <row r="29" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:831" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -19315,7 +19312,7 @@
         <v>2.2048030018595455E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>1213.6230335000002</v>
       </c>
@@ -21807,7 +21804,7 @@
         <v>-8.6543923316639848E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>-1634.2809776500003</v>
       </c>
@@ -24299,7 +24296,7 @@
         <v>3.284839226580516E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>-81.333507469999972</v>
       </c>
@@ -26791,7 +26788,7 @@
         <v>2.0526255440245222E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>-1119.3011452199999</v>
       </c>
@@ -29283,7 +29280,7 @@
         <v>-1.9850137732646544E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:831" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -32608,7 +32605,7 @@
         <v>9.8703382955887686E-9</v>
       </c>
     </row>
-    <row r="37" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:831" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -35933,7 +35930,7 @@
         <v>-6.5152298200788893E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>437148.46473176498</v>
       </c>
@@ -38425,7 +38422,7 @@
         <v>-1.0259872494550487E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>-461798.20654103038</v>
       </c>
@@ -40917,7 +40914,7 @@
         <v>8.9341976471884049E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>-34883.150731436835</v>
       </c>
@@ -43409,7 +43406,7 @@
         <v>3.7148161078850569E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:831" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>-379648.42332959</v>
       </c>
@@ -45901,7 +45898,7 @@
         <v>8.1481221164322534E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:831" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -49226,7 +49223,7 @@
         <v>9.5226558272119292E-7</v>
       </c>
     </row>
-    <row r="45" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:831" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -52551,7 +52548,7 @@
         <v>1.0365110820642391E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:831" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -55876,7 +55873,7 @@
         <v>9.9349576222492099E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:831" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:831" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -59199,6 +59196,11 @@
       <c r="AEY49">
         <f t="shared" si="99"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:831" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -59218,17 +59220,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0D75C-7C29-445D-9B57-3C648AE105CB}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
@@ -59245,7 +59247,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>5.2403000000000004</v>
       </c>
@@ -59280,7 +59282,7 @@
         <v>-2.5373000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>-1.4360999999999999</v>
       </c>
@@ -59315,7 +59317,7 @@
         <v>2.5573000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>5.1886000000000001</v>
       </c>
@@ -59350,7 +59352,7 @@
         <v>-6.9600999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>5.4817</v>
       </c>
@@ -59385,7 +59387,7 @@
         <v>9.6417000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>-2.5373000000000001</v>
       </c>
@@ -59420,7 +59422,7 @@
         <v>-2.7947000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
@@ -59430,7 +59432,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" cm="1">
         <f t="array" ref="B9:G13">MMULT(I2:M6,B2:G6)</f>
         <v>92.931623439999996</v>
@@ -59451,7 +59453,7 @@
         <v>684.5682414900001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>67.859226020000008</v>
       </c>
@@ -59471,7 +59473,7 @@
         <v>1222.1996268400003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>-39.116454349999998</v>
       </c>
@@ -59491,7 +59493,7 @@
         <v>-1527.2914593500002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>-89.784851750000001</v>
       </c>
@@ -59511,7 +59513,7 @@
         <v>-1.6643765899999607</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>-21.988464449999999</v>
       </c>
@@ -59531,7 +59533,7 @@
         <v>-1088.8854223399999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -59554,7 +59556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -59583,7 +59585,7 @@
         <v>-1.5631940186722204E-10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>1213.6230335000002</v>
       </c>
@@ -59603,7 +59605,7 @@
         <v>-2.02817318495363E-10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>-1634.2809776500003</v>
       </c>
@@ -59623,7 +59625,7 @@
         <v>1.6461854102090001E-10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>-81.333507469999972</v>
       </c>
@@ -59643,7 +59645,7 @@
         <v>1.3181988833821379E-10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>-1119.3011452199999</v>
       </c>
@@ -59663,7 +59665,7 @@
         <v>1.5188561519607902E-10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -59688,7 +59690,7 @@
         <v>8.4947297712457903</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C24">
         <f>B18</f>
         <v>1213.6230335000002</v>
@@ -59706,7 +59708,7 @@
         <v>-10.845911521045441</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C25">
         <f>B19</f>
         <v>-1634.2809776500003</v>
@@ -59724,7 +59726,7 @@
         <v>1.1453654923784302</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C26">
         <f>B20</f>
         <v>-81.333507469999972</v>
@@ -59742,7 +59744,7 @@
         <v>1.9420923240793702</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C27">
         <f>B21</f>
         <v>-1119.3011452199999</v>
@@ -59760,36 +59762,36 @@
         <v>-8.6701536509989001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29">
-        <f>B17*B17 + B18*B18 +B19*B19 + B20*B20 + B21*B21</f>
+        <f t="shared" ref="B29:G29" si="0">B17*B17 + B18*B18 +B19*B19 + B20*B20 + B21*B21</f>
         <v>5858381.154742308</v>
       </c>
       <c r="C29">
-        <f>C17*C17 + C18*C18 +C19*C19 + C20*C20 + C21*C21</f>
+        <f t="shared" si="0"/>
         <v>71094.65024840823</v>
       </c>
       <c r="D29">
-        <f>D17*D17 + D18*D18 +D19*D19 + D20*D20 + D21*D21</f>
+        <f t="shared" si="0"/>
         <v>17557.449081013379</v>
       </c>
       <c r="E29">
-        <f>E17*E17 + E18*E18 +E19*E19 + E20*E20 + E21*E21</f>
+        <f t="shared" si="0"/>
         <v>2581.0971895862767</v>
       </c>
       <c r="F29">
-        <f>F17*F17 + F18*F18 +F19*F19 + F20*F20 + F21*F21</f>
+        <f t="shared" si="0"/>
         <v>242.97388399874654</v>
       </c>
       <c r="G29">
-        <f>G17*G17 + G18*G18 +G19*G19 + G20*G20 + G21*G21</f>
+        <f t="shared" si="0"/>
         <v>1.3311560719461585E-19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -59814,7 +59816,7 @@
         <v>24.904123958488128</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C32">
         <v>437148.46473176498</v>
       </c>
@@ -59831,7 +59833,7 @@
         <v>-19.776620458315847</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C33">
         <v>-461798.20654103038</v>
       </c>
@@ -59848,7 +59850,7 @@
         <v>2.8225986710752977</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C34">
         <v>-34883.150731436835</v>
       </c>
@@ -59865,7 +59867,7 @@
         <v>7.8149754320703266</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C35">
         <v>-379648.42332959</v>
       </c>
@@ -59882,7 +59884,7 @@
         <v>-11.121141257383783</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -59907,7 +59909,7 @@
         <v>540.88159328531151</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -59932,7 +59934,7 @@
         <v>0.44921825222952155</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -59957,7 +59959,7 @@
         <v>5.4785973292217108E-22</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -59985,7 +59987,7 @@
         <v>5.6511834319749745</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>1</v>
       </c>
@@ -60005,7 +60007,7 @@
         <v>-2.0406700995792226</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>1</v>
       </c>
@@ -60025,7 +60027,7 @@
         <v>-5.6812045089773795</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>1</v>
       </c>
@@ -60045,7 +60047,7 @@
         <v>0.83229689667101359</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>1</v>
       </c>
@@ -60065,36 +60067,36 @@
         <v>-6.8386749475931659</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
       <c r="B50">
-        <f>SQRT(B17^2 + B18^2 + B19^2 + B20^2 + B21^2)</f>
+        <f t="shared" ref="B50:G50" si="1">SQRT(B17^2 + B18^2 + B19^2 + B20^2 + B21^2)</f>
         <v>2420.4092948801672</v>
       </c>
       <c r="C50">
-        <f>SQRT(C17^2 + C18^2 + C19^2 + C20^2 + C21^2)</f>
+        <f t="shared" si="1"/>
         <v>266.63580076277873</v>
       </c>
       <c r="D50">
-        <f>SQRT(D17^2 + D18^2 + D19^2 + D20^2 + D21^2)</f>
+        <f t="shared" si="1"/>
         <v>132.50452475675456</v>
       </c>
       <c r="E50">
-        <f>SQRT(E17^2 + E18^2 + E19^2 + E20^2 + E21^2)</f>
+        <f t="shared" si="1"/>
         <v>50.804499698218429</v>
       </c>
       <c r="F50">
-        <f>SQRT(F17^2 + F18^2 + F19^2 + F20^2 + F21^2)</f>
+        <f t="shared" si="1"/>
         <v>15.587619574481106</v>
       </c>
       <c r="G50">
-        <f>SQRT(G17^2 + G18^2 + G19^2 + G20^2 + G21^2)</f>
+        <f t="shared" si="1"/>
         <v>3.6485011606770233E-10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -60107,19 +60109,19 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:E52" si="0">IF(D50 &lt; 0.000001, 1, 0)</f>
+        <f t="shared" ref="D52:E52" si="2">IF(D50 &lt; 0.000001, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52:G52" si="1">IF(F50 &lt; 0.000001, 1, 0)</f>
+        <f t="shared" ref="F52:G52" si="3">IF(F50 &lt; 0.000001, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
